--- a/Input_template.xlsx
+++ b/Input_template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t xml:space="preserve">Etiqueta</t>
   </si>
@@ -116,19 +116,10 @@
     <t xml:space="preserve">fluorescence</t>
   </si>
   <si>
-    <t xml:space="preserve">v9_no_fl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versión 9 – sin fluorescencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0, 0.1, 1.0, 5.0, 10.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0, 0.004, 0.008, 0.012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01, 0.018, 0.03</t>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1</t>
   </si>
   <si>
     <t xml:space="preserve">Voss92: 0.314</t>
@@ -390,10 +381,10 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.33"/>
@@ -514,16 +505,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>6000</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8" t="n">
         <v>0.5</v>
@@ -531,8 +522,8 @@
       <c r="G2" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>1.5</v>
+      <c r="H2" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="I2" s="8" t="n">
         <v>10</v>
@@ -540,8 +531,8 @@
       <c r="J2" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="K2" s="8" t="n">
-        <v>1.5</v>
+      <c r="K2" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="L2" s="8" t="n">
         <v>1</v>
@@ -550,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="8" t="n">
         <v>0.314</v>
@@ -561,8 +552,8 @@
       <c r="Q2" s="8" t="n">
         <v>0.041</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>34</v>
+      <c r="R2" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="S2" s="8" t="n">
         <v>0.55</v>
@@ -576,8 +567,8 @@
       <c r="V2" s="8" t="n">
         <v>-0.0149</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>35</v>
+      <c r="W2" s="8" t="n">
+        <v>0.1</v>
       </c>
       <c r="X2" s="0" t="n">
         <v>0.006</v>
@@ -607,27 +598,27 @@
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="AE3" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -652,16 +643,16 @@
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Input_template.xlsx
+++ b/Input_template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t xml:space="preserve">Etiqueta</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t xml:space="preserve">Id_max_run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_min_output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_max_output</t>
   </si>
   <si>
     <t xml:space="preserve">CHL_min</t>
@@ -186,7 +192,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,7 +214,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -264,7 +276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,6 +306,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,7 +342,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
@@ -350,7 +366,7 @@
       <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFFAA95"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -378,31 +394,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.90234375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="16.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="25.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="16.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="25.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="27.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,7 +443,7 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -436,7 +452,7 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
@@ -445,13 +461,13 @@
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="6" t="s">
@@ -460,52 +476,58 @@
       <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -514,111 +536,117 @@
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="8" t="n">
+      <c r="O2" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="n">
-        <v>500</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="8" t="n">
+      <c r="P2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="9" t="n">
         <v>0.314</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="R2" s="9" t="n">
         <v>0.57</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="S2" s="9" t="n">
         <v>0.041</v>
       </c>
-      <c r="R2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8" t="n">
+      <c r="T2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9" t="n">
         <v>0.55</v>
       </c>
-      <c r="T2" s="8" t="n">
+      <c r="V2" s="9" t="n">
         <v>-0.0123</v>
       </c>
-      <c r="U2" s="8" t="n">
+      <c r="W2" s="9" t="n">
         <v>-0.3749</v>
       </c>
-      <c r="V2" s="8" t="n">
+      <c r="X2" s="9" t="n">
         <v>-0.0149</v>
       </c>
-      <c r="W2" s="8" t="n">
+      <c r="Y2" s="9" t="n">
         <v>0.1</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>0.006</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="Z2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="AB2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="AC2" s="8" t="n">
+      <c r="AE2" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="AD2" s="8" t="n">
+      <c r="AF2" s="9" t="n">
         <v>135</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N3" s="8"/>
-      <c r="O3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="8" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="0" t="s">
+      <c r="AE3" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>39</v>
+      <c r="Q4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -643,16 +671,16 @@
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
